--- a/federal/federal_2010_2011.xlsx
+++ b/federal/federal_2010_2011.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.186</v>
+        <v>0.127</v>
       </c>
       <c r="B2">
-        <v>6.895</v>
+        <v>3.893</v>
       </c>
       <c r="C2">
-        <v>0.845</v>
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.066</v>
+        <v>0.023</v>
       </c>
       <c r="B2">
-        <v>1.763</v>
+        <v>1.145</v>
       </c>
       <c r="C2">
-        <v>0.837</v>
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.031</v>
+        <v>-0.051</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>0.402</v>
       </c>
       <c r="C2">
-        <v>11990.99</v>
+        <v>15214.24</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>0.119</v>
       </c>
     </row>
   </sheetData>
